--- a/DETERMINANTE ACESSO A CAPITAL/crunchbase_2021.xlsx
+++ b/DETERMINANTE ACESSO A CAPITAL/crunchbase_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba158c18d2df68b8/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba158c18d2df68b8/Área de Trabalho/ICE-23/DETERMINANTE ACESSO A CAPITAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF41AFEA-210D-49E7-B849-2DD7C47179C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{AF41AFEA-210D-49E7-B849-2DD7C47179C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94FEC75A-E2AD-4818-95AF-8CD90CA1D61F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AC78FDAC-33AA-482F-BD83-B5F200E99DB1}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>UF</t>
   </si>
   <si>
-    <t>Ano</t>
-  </si>
-  <si>
     <t>Total funding amount</t>
   </si>
   <si>
@@ -429,6 +426,9 @@
   </si>
   <si>
     <t>Belford Roxo</t>
+  </si>
+  <si>
+    <t>Município</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,18 +817,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>762330634</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>12392876591</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>80833642</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>1173142050</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>3942505</v>
@@ -880,19 +880,19 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>49284379</v>
@@ -900,19 +900,19 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="3">
         <v>843444170</v>
@@ -920,19 +920,19 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="3">
         <v>76567</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="13" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
         <v>9037490</v>
@@ -951,10 +951,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>10282641</v>
@@ -962,28 +962,28 @@
     </row>
     <row r="15" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
         <v>20298798</v>
@@ -991,19 +991,19 @@
     </row>
     <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
         <v>8735913</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C20" s="3">
         <v>33618399</v>
@@ -1022,19 +1022,19 @@
     </row>
     <row r="21" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3">
         <v>5200289</v>
@@ -1042,19 +1042,19 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3">
         <v>1688656</v>
@@ -1062,10 +1062,10 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>800000</v>
@@ -1073,19 +1073,19 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3">
         <v>593768</v>
@@ -1093,19 +1093,19 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3">
         <v>495794</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="30" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C30" s="3">
         <v>1363934</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C31" s="3">
         <v>1489252</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3">
         <v>6943468</v>
@@ -1146,37 +1146,37 @@
     </row>
     <row r="33" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C36" s="3">
         <v>49517</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C37" s="3">
         <v>41948580</v>
@@ -1195,118 +1195,118 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="3">
         <v>20411805</v>
@@ -1314,37 +1314,37 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="3">
         <v>2900000</v>
@@ -1352,190 +1352,190 @@
     </row>
     <row r="55" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="3">
         <v>561265</v>
@@ -1543,55 +1543,55 @@
     </row>
     <row r="76" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C81" s="3">
         <v>7018775</v>
@@ -1599,19 +1599,19 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="3">
         <v>70312</v>
@@ -1619,118 +1619,118 @@
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96" s="3">
         <v>1100000</v>
@@ -1738,55 +1738,55 @@
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2"/>
     </row>
